--- a/jhj-oa/src/main/webapp/WEB-INF/attach/服务人员订单明细表.xlsx
+++ b/jhj-oa/src/main/webapp/WEB-INF/attach/服务人员订单明细表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,113 +19,121 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>云店</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>服务人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>订单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>下单时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>订单类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>服务日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>服务时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>派工人数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>用户手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>是否会员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>支付方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>原价</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>优惠劵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>补差价</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>加时</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>订单补贴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单加时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>补差价收入</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>加时收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单产生欠款</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单总金额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>订单总收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单补差价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单补差价收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单产生欠款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>派工人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单备注</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -163,9 +171,14 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Baoli SC Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,9 +205,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -530,88 +550,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="7.5" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="12" max="12" width="16.1640625" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="22" max="22" width="13.33203125" customWidth="1"/>
-    <col min="23" max="23" width="18.33203125" customWidth="1"/>
-    <col min="24" max="24" width="15.5" customWidth="1"/>
-    <col min="25" max="25" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12" style="2" customWidth="1"/>
+    <col min="6" max="11" width="10.83203125" style="2"/>
+    <col min="12" max="12" width="20" style="4" customWidth="1"/>
+    <col min="13" max="13" width="14" style="2" customWidth="1"/>
+    <col min="14" max="16" width="10.83203125" style="2"/>
+    <col min="17" max="17" width="11.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" style="2" customWidth="1"/>
+    <col min="19" max="21" width="10.83203125" style="2"/>
+    <col min="22" max="22" width="18.33203125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="10.83203125" style="2"/>
+    <col min="24" max="24" width="14.6640625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="12.5" style="2" customWidth="1"/>
+    <col min="26" max="26" width="12.33203125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="27.1640625" style="4" customWidth="1"/>
+    <col min="28" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="17">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>21</v>
@@ -620,10 +650,16 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/jhj-oa/src/main/webapp/WEB-INF/attach/服务人员订单明细表.xlsx
+++ b/jhj-oa/src/main/webapp/WEB-INF/attach/服务人员订单明细表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -117,15 +117,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>订单总金额</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>订单总收入</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>订单备注</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单支付金额</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -562,9 +562,11 @@
     <col min="2" max="2" width="7.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="8" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12" style="2" customWidth="1"/>
-    <col min="6" max="11" width="10.83203125" style="2"/>
-    <col min="12" max="12" width="20" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.5" style="2" customWidth="1"/>
+    <col min="8" max="11" width="10.83203125" style="2"/>
+    <col min="12" max="12" width="31" style="4" customWidth="1"/>
     <col min="13" max="13" width="14" style="2" customWidth="1"/>
     <col min="14" max="16" width="10.83203125" style="2"/>
     <col min="17" max="17" width="11.6640625" style="2" customWidth="1"/>
@@ -573,7 +575,7 @@
     <col min="22" max="22" width="18.33203125" style="2" customWidth="1"/>
     <col min="23" max="23" width="10.83203125" style="2"/>
     <col min="24" max="24" width="14.6640625" style="2" customWidth="1"/>
-    <col min="25" max="25" width="12.5" style="2" customWidth="1"/>
+    <col min="25" max="25" width="16.5" style="2" customWidth="1"/>
     <col min="26" max="26" width="12.33203125" style="2" customWidth="1"/>
     <col min="27" max="27" width="27.1640625" style="4" customWidth="1"/>
     <col min="28" max="16384" width="10.83203125" style="2"/>
@@ -653,13 +655,13 @@
         <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/jhj-oa/src/main/webapp/WEB-INF/attach/服务人员订单明细表.xlsx
+++ b/jhj-oa/src/main/webapp/WEB-INF/attach/服务人员订单明细表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>序号</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -127,6 +127,10 @@
   <si>
     <t>订单支付金额</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -550,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:AB1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -581,7 +585,7 @@
     <col min="28" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="21">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,6 +666,9 @@
       </c>
       <c r="AA1" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/jhj-oa/src/main/webapp/WEB-INF/attach/服务人员订单明细表.xlsx
+++ b/jhj-oa/src/main/webapp/WEB-INF/attach/服务人员订单明细表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14200" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16785" windowHeight="7965" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>序号</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -130,6 +131,14 @@
   </si>
   <si>
     <t>订单来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团购码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否验码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -176,12 +185,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Baoli SC Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -209,7 +226,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -219,16 +236,25 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -554,38 +580,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:AD1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="8" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="18" style="2" customWidth="1"/>
     <col min="7" max="7" width="19.5" style="2" customWidth="1"/>
-    <col min="8" max="11" width="10.83203125" style="2"/>
+    <col min="8" max="11" width="10.875" style="2"/>
     <col min="12" max="12" width="31" style="4" customWidth="1"/>
     <col min="13" max="13" width="14" style="2" customWidth="1"/>
-    <col min="14" max="16" width="10.83203125" style="2"/>
-    <col min="17" max="17" width="11.6640625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="13.33203125" style="2" customWidth="1"/>
-    <col min="19" max="21" width="10.83203125" style="2"/>
-    <col min="22" max="22" width="18.33203125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="10.83203125" style="2"/>
-    <col min="24" max="24" width="14.6640625" style="2" customWidth="1"/>
+    <col min="14" max="16" width="10.875" style="2"/>
+    <col min="17" max="17" width="11.625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="13.375" style="2" customWidth="1"/>
+    <col min="19" max="21" width="10.875" style="2"/>
+    <col min="22" max="22" width="18.375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="10.875" style="2"/>
+    <col min="24" max="24" width="14.625" style="2" customWidth="1"/>
     <col min="25" max="25" width="16.5" style="2" customWidth="1"/>
-    <col min="26" max="26" width="12.33203125" style="2" customWidth="1"/>
-    <col min="27" max="27" width="27.1640625" style="4" customWidth="1"/>
-    <col min="28" max="16384" width="10.83203125" style="2"/>
+    <col min="26" max="26" width="12.375" style="2" customWidth="1"/>
+    <col min="27" max="27" width="27.125" style="4" customWidth="1"/>
+    <col min="28" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="21">
+    <row r="1" spans="1:30" s="1" customFormat="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,12 +695,18 @@
       </c>
       <c r="AB1" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/jhj-oa/src/main/webapp/WEB-INF/attach/服务人员订单明细表.xlsx
+++ b/jhj-oa/src/main/webapp/WEB-INF/attach/服务人员订单明细表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16785" windowHeight="7965" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="6405" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>序号</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -139,6 +139,10 @@
   </si>
   <si>
     <t>是否验码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务完成时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AE1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AA13" sqref="AA13"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
@@ -608,10 +612,12 @@
     <col min="25" max="25" width="16.5" style="2" customWidth="1"/>
     <col min="26" max="26" width="12.375" style="2" customWidth="1"/>
     <col min="27" max="27" width="27.125" style="4" customWidth="1"/>
-    <col min="28" max="16384" width="10.875" style="2"/>
+    <col min="28" max="30" width="10.875" style="2"/>
+    <col min="31" max="31" width="17.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" ht="19.5">
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,6 +707,9 @@
       </c>
       <c r="AD1" s="5" t="s">
         <v>29</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
